--- a/_Format/shStaff_example.xlsx
+++ b/_Format/shStaff_example.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="26">
   <si>
     <t>範例</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -56,14 +56,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>變更檢查項目(檢查類別代號)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>檢查項目</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>NO</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -110,13 +102,24 @@
   <si>
     <t>02,31</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>去年檢查項目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>檢查類別</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>檢查代號</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -141,13 +144,7 @@
       <charset val="136"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="微軟正黑體"/>
-      <family val="2"/>
-      <charset val="136"/>
-    </font>
-    <font>
+      <b/>
       <sz val="12"/>
       <name val="微軟正黑體"/>
       <family val="2"/>
@@ -203,7 +200,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -214,9 +211,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -535,28 +529,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
+      <selection pane="bottomLeft" activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="7.125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8" customWidth="1"/>
-    <col min="5" max="5" width="10" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="18.875" customWidth="1"/>
-    <col min="8" max="8" width="16.75" customWidth="1"/>
+    <col min="3" max="3" width="14.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.75" customWidth="1"/>
+    <col min="5" max="5" width="13" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.125" customWidth="1"/>
+    <col min="8" max="9" width="16.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="33" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
@@ -574,71 +568,74 @@
         <v>3</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>9</v>
+        <v>24</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>195</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C2" s="1">
         <v>22002658</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="H2" t="s">
         <v>13</v>
       </c>
-      <c r="G2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>196</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C3" s="1">
         <v>24000015</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="H3" t="s">
         <v>13</v>
       </c>
-      <c r="G3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>236</v>
       </c>
@@ -649,25 +646,25 @@
         <v>23004965</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>237</v>
       </c>
@@ -678,25 +675,25 @@
         <v>23005758</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" t="s">
         <v>21</v>
       </c>
-      <c r="H5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I5" s="2" t="s">
+      <c r="J5" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>238</v>
       </c>
@@ -707,21 +704,21 @@
         <v>23005760</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H6" t="s">
-        <v>24</v>
-      </c>
-      <c r="I6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" s="2" t="s">
         <v>0</v>
       </c>
     </row>
